--- a/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.3 Sprint_Backlog_3.xlsx
+++ b/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.3 Sprint_Backlog_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\SprintBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\Appendix\2. Project Management\2.3 Sprint Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -241,14 +241,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill>
@@ -280,6 +273,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -469,13 +469,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -497,6 +490,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -540,118 +540,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -687,8 +575,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="61"/>
-      <tableStyleElement type="headerRow" dxfId="60"/>
+      <tableStyleElement type="wholeTable" dxfId="45"/>
+      <tableStyleElement type="headerRow" dxfId="44"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -997,13 +885,14 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="86.77734375" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -1896,31 +1785,31 @@
         <v>57</v>
       </c>
       <c r="K25">
-        <f>SUM(K4:K24)</f>
+        <f t="shared" ref="K25:Q25" si="1">SUM(K4:K24)</f>
         <v>40</v>
       </c>
       <c r="L25">
-        <f>SUM(L4:L24)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M25">
-        <f>SUM(M4:M24)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="N25">
-        <f>SUM(N4:N24)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O25">
-        <f>SUM(O4:O24)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P25">
-        <f>SUM(P4:P24)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q25">
-        <f>SUM(Q4:Q24)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="R25">
@@ -1930,178 +1819,178 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="46" priority="42" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="34" priority="46" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="33" priority="47" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="48" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="32" priority="48" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="35" priority="30" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
